--- a/biology/Microbiologie/Euryarchaeota/Euryarchaeota.xlsx
+++ b/biology/Microbiologie/Euryarchaeota/Euryarchaeota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Euryarchaeota, ou euryarchéotes sont un embranchement (phylum) du règne des archées qui comprend notamment :
 tous les méthanogènes : Methanobacteria (méthanobactéries), Methanococci (méthanocoques), Methanomicrobia et Methanopyri, qui produisent du méthane CH4 par méthanogenèse et se rencontrent dans les environnements les plus variés allant des sédiments marins à la flore intestinale de nombreux animaux dont l'Homme ;
@@ -514,9 +526,11 @@
           <t>Liste des classes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (20 juillet 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (20 juillet 2017) :
 classe Archaeoglobi
 classe Hadesarchaea
 classe Halobacteria
@@ -527,7 +541,7 @@
 classe Theionarchaea
 classe Thermococci
 classe Thermoplasmata
-Selon ITIS      (20 juillet 2017)[2] :
+Selon ITIS      (20 juillet 2017) :
 classe Archaeoglobi
 classe Halobacteria
 classe Methanobacteria
@@ -537,7 +551,7 @@
 classe Nanohaloarchaea
 classe Thermococci
 classe Thermoplasmata
-Selon Catalogue of Life                                   (20 juillet 2017)[3] et World Register of Marine Species                               (20 juillet 2017)[4] :
+Selon Catalogue of Life                                   (20 juillet 2017) et World Register of Marine Species                               (20 juillet 2017) :
 classe Archaeoglobi
 classe Halobacteria
 classe Methanobacteria
